--- a/mbs-EP-v.1.0.3 - changable version/Excel Files/crank_slider/crank_slider_gravity_spring_damper.xlsx
+++ b/mbs-EP-v.1.0.3 - changable version/Excel Files/crank_slider/crank_slider_gravity_spring_damper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\crank_slider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.3 - changable version\Excel Files\crank_slider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE0319-D224-434A-A3E9-BA9B90DDC486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43FC1B-4843-4BC9-97B2-C3E44EB838F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1298,18 +1298,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1328,12 +1414,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,74 +1423,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,7 +1432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,7 +1441,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1439,14 +1459,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1457,89 +1492,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,44 +1993,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="J2" s="64" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="J2" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="74" t="s">
+      <c r="K3" s="96"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="88"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="78"/>
       <c r="P3" s="42" t="s">
         <v>165</v>
       </c>
@@ -2039,10 +2039,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2055,14 +2055,14 @@
       <c r="K4" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="77"/>
+      <c r="L4" s="105"/>
       <c r="M4" s="40" t="s">
         <v>136</v>
       </c>
       <c r="N4" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="O4" s="89"/>
+      <c r="O4" s="79"/>
       <c r="P4" s="42" t="s">
         <v>166</v>
       </c>
@@ -2071,10 +2071,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="48" t="s">
         <v>87</v>
       </c>
@@ -2087,14 +2087,14 @@
       <c r="K5" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="77"/>
+      <c r="L5" s="105"/>
       <c r="M5" s="42" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="89"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="42" t="s">
         <v>167</v>
       </c>
@@ -2103,10 +2103,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="48" t="s">
         <v>3</v>
       </c>
@@ -2119,14 +2119,14 @@
       <c r="K6" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="77"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="42" t="s">
         <v>138</v>
       </c>
       <c r="N6" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="O6" s="89"/>
+      <c r="O6" s="79"/>
       <c r="P6" s="42" t="s">
         <v>171</v>
       </c>
@@ -2135,10 +2135,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="48">
         <v>-9806</v>
       </c>
@@ -2151,14 +2151,14 @@
       <c r="K7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="77"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="42" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="89"/>
+      <c r="O7" s="79"/>
       <c r="P7" s="42" t="s">
         <v>170</v>
       </c>
@@ -2167,10 +2167,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="48" t="s">
         <v>134</v>
       </c>
@@ -2183,14 +2183,14 @@
       <c r="K8" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="77"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="42" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="89"/>
+      <c r="O8" s="79"/>
       <c r="P8" s="42" t="s">
         <v>174</v>
       </c>
@@ -2199,10 +2199,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="48"/>
       <c r="E9" s="49" t="s">
         <v>128</v>
@@ -2213,14 +2213,14 @@
       <c r="K9" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="77"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="42" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="89"/>
+      <c r="O9" s="79"/>
       <c r="P9" s="42" t="s">
         <v>175</v>
       </c>
@@ -2235,14 +2235,14 @@
       <c r="K10" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="77"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="42" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="89"/>
+      <c r="O10" s="79"/>
       <c r="P10" s="47" t="s">
         <v>176</v>
       </c>
@@ -2253,14 +2253,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="51"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="77"/>
+      <c r="L11" s="105"/>
       <c r="M11" s="42" t="s">
         <v>140</v>
       </c>
       <c r="N11" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="O11" s="89"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="47" t="s">
         <v>177</v>
       </c>
@@ -2269,25 +2269,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="J12" s="53"/>
       <c r="K12" s="54"/>
-      <c r="L12" s="77"/>
+      <c r="L12" s="105"/>
       <c r="M12" s="42" t="s">
         <v>141</v>
       </c>
       <c r="N12" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="O12" s="89"/>
+      <c r="O12" s="79"/>
       <c r="P12" s="42" t="s">
         <v>182</v>
       </c>
@@ -2296,29 +2296,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="39" t="s">
         <v>244</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
       <c r="J13" s="53"/>
       <c r="K13" s="54"/>
-      <c r="L13" s="77"/>
+      <c r="L13" s="105"/>
       <c r="M13" s="42" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="89"/>
+      <c r="O13" s="79"/>
       <c r="P13" s="47" t="s">
         <v>183</v>
       </c>
@@ -2327,29 +2327,29 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="39" t="s">
         <v>244</v>
       </c>
       <c r="E14" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
       <c r="J14" s="55"/>
       <c r="K14" s="56"/>
-      <c r="L14" s="77"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="42" t="s">
         <v>142</v>
       </c>
       <c r="N14" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="O14" s="89"/>
+      <c r="O14" s="79"/>
       <c r="P14" s="47" t="s">
         <v>184</v>
       </c>
@@ -2358,31 +2358,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="39" t="s">
         <v>244</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="J15" s="74" t="s">
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="J15" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="77"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="105"/>
       <c r="M15" s="42" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="89"/>
+      <c r="O15" s="79"/>
       <c r="P15" s="47" t="s">
         <v>185</v>
       </c>
@@ -2391,31 +2391,31 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="41"/>
       <c r="E16" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
       <c r="J16" s="42" t="s">
         <v>101</v>
       </c>
       <c r="K16" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="77"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="42" t="s">
         <v>143</v>
       </c>
       <c r="N16" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="O16" s="89"/>
+      <c r="O16" s="79"/>
       <c r="P16" s="42" t="s">
         <v>190</v>
       </c>
@@ -2424,29 +2424,29 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="41"/>
       <c r="E17" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
       <c r="J17" s="42" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="77"/>
-      <c r="M17" s="74" t="s">
+      <c r="L17" s="105"/>
+      <c r="M17" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="N17" s="75"/>
-      <c r="O17" s="89"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="79"/>
       <c r="P17" s="47" t="s">
         <v>191</v>
       </c>
@@ -2455,33 +2455,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="41" t="s">
         <v>244</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
       <c r="J18" s="42" t="s">
         <v>102</v>
       </c>
       <c r="K18" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="77"/>
+      <c r="L18" s="105"/>
       <c r="M18" s="50" t="s">
         <v>164</v>
       </c>
       <c r="N18" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="O18" s="89"/>
+      <c r="O18" s="79"/>
       <c r="P18" s="47" t="s">
         <v>192</v>
       </c>
@@ -2490,31 +2490,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="41"/>
       <c r="E19" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
       <c r="J19" s="42" t="s">
         <v>103</v>
       </c>
       <c r="K19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="77"/>
+      <c r="L19" s="105"/>
       <c r="M19" s="43" t="s">
         <v>156</v>
       </c>
       <c r="N19" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="O19" s="89"/>
+      <c r="O19" s="79"/>
       <c r="P19" s="47" t="s">
         <v>193</v>
       </c>
@@ -2523,20 +2523,20 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="94"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="39">
         <v>2</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="92" t="s">
+      <c r="F20" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="92"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="46"/>
       <c r="J20" s="42" t="s">
         <v>109</v>
@@ -2544,14 +2544,14 @@
       <c r="K20" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="L20" s="77"/>
+      <c r="L20" s="105"/>
       <c r="M20" s="43" t="s">
         <v>157</v>
       </c>
       <c r="N20" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="89"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="42" t="s">
         <v>198</v>
       </c>
@@ -2560,12 +2560,12 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="46"/>
       <c r="J21" s="42" t="s">
         <v>104</v>
@@ -2573,14 +2573,14 @@
       <c r="K21" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="L21" s="77"/>
+      <c r="L21" s="105"/>
       <c r="M21" s="43" t="s">
         <v>158</v>
       </c>
       <c r="N21" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="O21" s="89"/>
+      <c r="O21" s="79"/>
       <c r="P21" s="47" t="s">
         <v>199</v>
       </c>
@@ -2589,12 +2589,12 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="46"/>
       <c r="J22" s="30" t="s">
         <v>115</v>
@@ -2602,14 +2602,14 @@
       <c r="K22" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="L22" s="78"/>
+      <c r="L22" s="106"/>
       <c r="M22" s="43" t="s">
         <v>159</v>
       </c>
       <c r="N22" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="89"/>
+      <c r="O22" s="79"/>
       <c r="P22" s="47" t="s">
         <v>200</v>
       </c>
@@ -2618,19 +2618,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="46"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="89"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="79"/>
       <c r="P23" s="47" t="s">
         <v>201</v>
       </c>
@@ -2639,19 +2639,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="46"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="89"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="79"/>
       <c r="P24" s="30" t="s">
         <v>207</v>
       </c>
@@ -2660,19 +2660,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="46"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="89"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="79"/>
       <c r="P25" s="30" t="s">
         <v>211</v>
       </c>
@@ -2681,19 +2681,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="95"/>
-      <c r="C26" s="96"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
       <c r="H26" s="46"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="89"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="79"/>
       <c r="P26" s="30" t="s">
         <v>212</v>
       </c>
@@ -2702,19 +2702,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="46"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="89"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="79"/>
       <c r="P27" s="30" t="s">
         <v>213</v>
       </c>
@@ -2723,12 +2723,12 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="82"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="89"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="79"/>
       <c r="P28" s="30" t="s">
         <v>215</v>
       </c>
@@ -2737,12 +2737,12 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="89"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="79"/>
       <c r="P29" s="30" t="s">
         <v>214</v>
       </c>
@@ -2751,12 +2751,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="89"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="79"/>
       <c r="P30" s="30" t="s">
         <v>216</v>
       </c>
@@ -2765,12 +2765,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="89"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="79"/>
       <c r="P31" s="30" t="s">
         <v>217</v>
       </c>
@@ -2779,12 +2779,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="89"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="79"/>
       <c r="P32" s="30" t="s">
         <v>218</v>
       </c>
@@ -2793,12 +2793,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="82"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="89"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="79"/>
       <c r="P33" s="30" t="s">
         <v>219</v>
       </c>
@@ -2807,12 +2807,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="82"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="89"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="79"/>
       <c r="P34" s="30" t="s">
         <v>220</v>
       </c>
@@ -2821,12 +2821,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="82"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="89"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="79"/>
       <c r="P35" s="30" t="s">
         <v>221</v>
       </c>
@@ -2835,12 +2835,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="82"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="89"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="79"/>
       <c r="P36" s="30" t="s">
         <v>230</v>
       </c>
@@ -2849,12 +2849,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="82"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="89"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="79"/>
       <c r="P37" s="30" t="s">
         <v>231</v>
       </c>
@@ -2863,12 +2863,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="85"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="89"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="79"/>
       <c r="P38" s="30" t="s">
         <v>232</v>
       </c>
@@ -2886,18 +2886,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F20:G27"/>
-    <mergeCell ref="B20:C27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2914,6 +2902,18 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F20:G27"/>
+    <mergeCell ref="B20:C27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2945,118 +2945,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="65" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65" t="s">
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="103" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103" t="s">
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103" t="s">
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="65" t="s">
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65" t="s">
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="92" t="s">
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="103" t="s">
+      <c r="S2" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="65" t="s">
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="90" t="s">
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="65" t="s">
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65" t="s">
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65" t="s">
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3110,8 +3110,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="92"/>
-      <c r="S3" s="102"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="108"/>
       <c r="T3" s="16" t="s">
         <v>67</v>
       </c>
@@ -6695,12 +6695,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6714,6 +6708,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6745,16 +6745,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6785,11 +6785,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6861,19 +6861,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6898,16 +6898,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="108" t="s">
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -6943,22 +6943,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6983,21 +6983,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107" t="s">
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107" t="s">
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7079,19 +7079,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7116,16 +7116,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107" t="s">
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7203,19 +7203,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7240,16 +7240,16 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="106" t="s">
+      <c r="F18" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="107" t="s">
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -7286,19 +7286,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7323,16 +7323,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="106" t="s">
+      <c r="F22" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="107" t="s">
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -7371,22 +7371,22 @@
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
     </row>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -7404,44 +7404,44 @@
       <c r="E26" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="106" t="s">
+      <c r="F26" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107" t="s">
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107" t="s">
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
     </row>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -7459,26 +7459,26 @@
       <c r="E30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="108" t="s">
+      <c r="F30" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="108" t="s">
+      <c r="G30" s="117"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="109"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="107" t="s">
+      <c r="J30" s="117"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107" t="s">
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -7501,14 +7501,14 @@
     </row>
     <row r="32" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="105" t="s">
+      <c r="A33" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7582,12 +7582,12 @@
       <c r="X36" s="10"/>
     </row>
     <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -7659,15 +7659,15 @@
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="115"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="10"/>
@@ -7687,11 +7687,11 @@
       <c r="D42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="107" t="s">
+      <c r="E42" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
@@ -7815,6 +7815,21 @@
     <row r="64" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
@@ -7831,21 +7846,6 @@
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7866,7 +7866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -7882,21 +7882,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120" t="s">
         <v>245</v>
       </c>
-      <c r="K1" s="118"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
@@ -7914,11 +7914,11 @@
       <c r="E2" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="62" t="s">
         <v>246</v>
       </c>
@@ -8022,58 +8022,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="119" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="121"/>
-      <c r="AB2" s="127" t="s">
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
+      <c r="AB2" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="129"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="132"/>
     </row>
     <row r="3" spans="1:33" s="32" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
@@ -8091,16 +8091,16 @@
       <c r="E3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="130" t="s">
+      <c r="G3" s="140"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="60" t="s">
         <v>243</v>
       </c>
@@ -8119,10 +8119,10 @@
       <c r="Q3" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="126" t="s">
+      <c r="R3" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="126"/>
+      <c r="S3" s="144"/>
       <c r="AB3" s="133"/>
       <c r="AC3" s="134"/>
       <c r="AD3" s="134"/>
@@ -8188,7 +8188,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
-      <c r="M5" s="136"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="44"/>
       <c r="O5" s="44"/>
       <c r="P5" s="44"/>
@@ -8211,26 +8211,26 @@
       <c r="AG6" s="135"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
       <c r="AB7" s="133"/>
       <c r="AC7" s="134"/>
       <c r="AD7" s="134"/>
@@ -8239,26 +8239,26 @@
       <c r="AG7" s="135"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="137" t="s">
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="139" t="s">
         <v>250</v>
       </c>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
       <c r="AB8" s="133"/>
       <c r="AC8" s="134"/>
       <c r="AD8" s="134"/>
@@ -8282,16 +8282,16 @@
       <c r="E9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="123" t="s">
+      <c r="F9" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="130" t="s">
+      <c r="G9" s="140"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="131"/>
-      <c r="K9" s="132"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
       <c r="L9" s="35" t="s">
         <v>119</v>
       </c>
@@ -8307,10 +8307,10 @@
       <c r="P9" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="Q9" s="123" t="s">
+      <c r="Q9" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="125"/>
+      <c r="R9" s="122"/>
       <c r="AB9" s="133"/>
       <c r="AC9" s="134"/>
       <c r="AD9" s="134"/>
@@ -8371,7 +8371,7 @@
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="138"/>
+      <c r="L11" s="65"/>
       <c r="AB11" s="133"/>
       <c r="AC11" s="134"/>
       <c r="AD11" s="134"/>
@@ -8389,70 +8389,70 @@
       <c r="AG12" s="135"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="140"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="141"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="138"/>
     </row>
     <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="119" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="123" t="s">
         <v>251</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="142"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
     </row>
     <row r="15" spans="1:33" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
@@ -8470,26 +8470,26 @@
       <c r="E15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="143" t="s">
+      <c r="F15" s="126" t="s">
         <v>252</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="130" t="s">
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="141" t="s">
         <v>253</v>
       </c>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="114" t="s">
+      <c r="J15" s="142"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="114" t="s">
+      <c r="M15" s="128"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="127" t="s">
         <v>255</v>
       </c>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="116"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="129"/>
       <c r="R15" s="35" t="s">
         <v>79</v>
       </c>
@@ -8508,10 +8508,10 @@
       <c r="W15" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="X15" s="123" t="s">
+      <c r="X15" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="Y15" s="125"/>
+      <c r="Y15" s="122"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
@@ -8558,46 +8558,46 @@
       <c r="T17" s="44"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="119" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="121"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="125"/>
     </row>
     <row r="20" spans="1:20" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
@@ -8615,16 +8615,16 @@
       <c r="E20" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="143" t="s">
+      <c r="F20" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="114" t="s">
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="J20" s="115"/>
-      <c r="K20" s="116"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="129"/>
       <c r="L20" s="63" t="s">
         <v>120</v>
       </c>
@@ -8637,10 +8637,10 @@
       <c r="O20" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="P20" s="123" t="s">
+      <c r="P20" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="Q20" s="125"/>
+      <c r="Q20" s="122"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
@@ -8689,28 +8689,28 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AB2:AG13"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="A7:R7"/>
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="A18:Q18"/>
     <mergeCell ref="L19:Q19"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="AB2:AG13"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="A13:Y13"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="A7:R7"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="L15:N15"/>
@@ -8737,21 +8737,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="F1" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="I1" s="68" t="s">
+      <c r="G1" s="100"/>
+      <c r="I1" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
@@ -8769,12 +8769,12 @@
       <c r="G2" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="122" t="s">
+      <c r="I2" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
@@ -8786,10 +8786,10 @@
       <c r="G3" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
@@ -8801,10 +8801,10 @@
       <c r="G4" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
@@ -8816,10 +8816,10 @@
       <c r="G5" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
@@ -8831,10 +8831,10 @@
       <c r="G6" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
